--- a/resultado.xlsx
+++ b/resultado.xlsx
@@ -14,11 +14,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="16">
   <si>
     <t>tituloStatic</t>
   </si>
   <si>
+    <t>contentStatus</t>
+  </si>
+  <si>
     <t>datoStatic</t>
   </si>
   <si>
@@ -32,6 +35,9 @@
   </si>
   <si>
     <t>Grupo de Datos 2</t>
+  </si>
+  <si>
+    <t>standard</t>
   </si>
   <si>
     <t>Dato grupo 1</t>
@@ -82,15 +88,39 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF008000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -98,30 +128,16 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -417,13 +433,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="46.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -436,88 +459,126 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="4">
+        <v>47128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="4">
+        <v>47578</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="4">
+        <v>44704</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="4">
+        <v>47036</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2">
-        <v>47128</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="4">
+        <v>45544</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2">
-        <v>47578</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="D7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="4">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="2">
-        <v>44704</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="2">
-        <v>47036</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="2">
-        <v>45544</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="2">
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="5">
         <v>45261</v>
       </c>
     </row>

--- a/resultado.xlsx
+++ b/resultado.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="16">
   <si>
     <t>tituloStatic</t>
   </si>
@@ -69,7 +69,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -138,7 +138,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -465,18 +465,18 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="4">
+        <v>15</v>
+      </c>
+      <c r="E2" s="5">
         <v>47128</v>
       </c>
     </row>
@@ -491,9 +491,9 @@
         <v>8</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="4">
+        <v>10</v>
+      </c>
+      <c r="E3" s="5">
         <v>47578</v>
       </c>
     </row>
@@ -508,9 +508,9 @@
         <v>8</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="4">
+        <v>11</v>
+      </c>
+      <c r="E4" s="5">
         <v>44704</v>
       </c>
     </row>
@@ -525,26 +525,26 @@
         <v>8</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="4">
+        <v>12</v>
+      </c>
+      <c r="E5" s="5">
         <v>47036</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="4">
+        <v>13</v>
+      </c>
+      <c r="E6" s="5">
         <v>45544</v>
       </c>
     </row>
@@ -559,26 +559,26 @@
         <v>9</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="5">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="4">
-        <v>45261</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>45261</v>
       </c>
     </row>

--- a/resultado.xlsx
+++ b/resultado.xlsx
@@ -14,7 +14,40 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="16">
+  <si>
+    <t>Grupo de Datos 1</t>
+  </si>
+  <si>
+    <t>Grupo de Datos 2</t>
+  </si>
+  <si>
+    <t>standard</t>
+  </si>
+  <si>
+    <t>Dato grupo 1</t>
+  </si>
+  <si>
+    <t>Dato grupo 2</t>
+  </si>
+  <si>
+    <t>U.S. Robotics presenta hallazgo</t>
+  </si>
+  <si>
+    <t>Se presenta el nuevo teléfono móvil en evento</t>
+  </si>
+  <si>
+    <t>Se mejora la conducción autónoma de vehículos</t>
+  </si>
+  <si>
+    <t>Fuccia OS sacude al mundo</t>
+  </si>
+  <si>
+    <t>Tenemos campeona del mundial de volleiball</t>
+  </si>
+  <si>
+    <t>Equipo veterano da un gran espectaculo</t>
+  </si>
   <si>
     <t>tituloStatic</t>
   </si>
@@ -29,39 +62,6 @@
   </si>
   <si>
     <t>fecha_publicacion</t>
-  </si>
-  <si>
-    <t>Grupo de Datos 1</t>
-  </si>
-  <si>
-    <t>Grupo de Datos 2</t>
-  </si>
-  <si>
-    <t>standard</t>
-  </si>
-  <si>
-    <t>Dato grupo 1</t>
-  </si>
-  <si>
-    <t>Dato grupo 2</t>
-  </si>
-  <si>
-    <t>U.S. Robotics presenta hallazgo</t>
-  </si>
-  <si>
-    <t>Se presenta el nuevo teléfono móvil en evento</t>
-  </si>
-  <si>
-    <t>Se mejora la conducción autónoma de vehículos</t>
-  </si>
-  <si>
-    <t>Fuccia OS sacude al mundo</t>
-  </si>
-  <si>
-    <t>Tenemos campeona del mundial de volleiball</t>
-  </si>
-  <si>
-    <t>Equipo veterano da un gran espectaculo</t>
   </si>
 </sst>
 </file>
@@ -448,33 +448,33 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E2" s="5">
         <v>47128</v>
@@ -482,16 +482,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="E3" s="5">
         <v>47578</v>
@@ -499,16 +499,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E4" s="5">
         <v>44704</v>
@@ -516,16 +516,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="E5" s="5">
         <v>47036</v>
@@ -533,16 +533,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="E6" s="5">
         <v>45544</v>
@@ -550,16 +550,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>14</v>
       </c>
       <c r="E7" s="5">
         <v>45261</v>
@@ -567,16 +567,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E8" s="4">
         <v>45261</v>

--- a/resultado.xlsx
+++ b/resultado.xlsx
@@ -14,63 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Grupo de Datos 1</t>
+    <t>A</t>
   </si>
   <si>
-    <t>Grupo de Datos 2</t>
+    <t>B</t>
   </si>
   <si>
-    <t>standard</t>
+    <t>C</t>
   </si>
   <si>
-    <t>Dato grupo 1</t>
-  </si>
-  <si>
-    <t>Dato grupo 2</t>
-  </si>
-  <si>
-    <t>U.S. Robotics presenta hallazgo</t>
-  </si>
-  <si>
-    <t>Se presenta el nuevo teléfono móvil en evento</t>
-  </si>
-  <si>
-    <t>Se mejora la conducción autónoma de vehículos</t>
-  </si>
-  <si>
-    <t>Fuccia OS sacude al mundo</t>
-  </si>
-  <si>
-    <t>Tenemos campeona del mundial de volleiball</t>
-  </si>
-  <si>
-    <t>Equipo veterano da un gran espectaculo</t>
-  </si>
-  <si>
-    <t>tituloStatic</t>
-  </si>
-  <si>
-    <t>contentStatus</t>
-  </si>
-  <si>
-    <t>datoStatic</t>
-  </si>
-  <si>
-    <t>titulo</t>
-  </si>
-  <si>
-    <t>fecha_publicacion</t>
+    <t>D</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -88,39 +49,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0000FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF008000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -128,22 +65,64 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD3D3D3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -433,156 +412,122 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="46.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>7</v>
+      </c>
+      <c r="C3">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>9</v>
+      </c>
+      <c r="C5">
         <v>14</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
+      <c r="D6">
         <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="5">
-        <v>47128</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="5">
-        <v>47578</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="5">
-        <v>44704</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="5">
-        <v>47036</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="5">
-        <v>45544</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="5">
-        <v>45261</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="4">
-        <v>45261</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:D1">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(A1))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A6">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B6">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
+      <formula>LEN(TRIM(B2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C6">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="4">
+      <formula>LEN(TRIM(C2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D6">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="5">
+      <formula>LEN(TRIM(D2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/resultado.xlsx
+++ b/resultado.xlsx
@@ -14,24 +14,63 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
+  <si>
+    <t>tituloStatic</t>
+  </si>
+  <si>
+    <t>contentStatus</t>
+  </si>
+  <si>
+    <t>datoStatic</t>
+  </si>
+  <si>
+    <t>titulo</t>
+  </si>
+  <si>
+    <t>fecha_publicacion</t>
+  </si>
+  <si>
+    <t>Grupo de Datos 1</t>
+  </si>
+  <si>
+    <t>Grupo de Datos 2</t>
+  </si>
+  <si>
+    <t>standard</t>
+  </si>
+  <si>
+    <t>Dato grupo 1</t>
+  </si>
+  <si>
+    <t>Dato grupo 2</t>
+  </si>
+  <si>
+    <t>U.S. Robotics presenta hallazgo</t>
+  </si>
+  <si>
+    <t>Se presenta el nuevo teléfono móvil en evento</t>
+  </si>
+  <si>
+    <t>Se mejora la conducción autónoma de vehículos</t>
+  </si>
+  <si>
+    <t>Fuccia OS sacude al mundo</t>
+  </si>
+  <si>
+    <t>Tenemos campeona del mundial de volleiball</t>
+  </si>
+  <si>
+    <t>Equipo veterano da un gran espectaculo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -84,11 +123,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,13 +452,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -431,101 +471,141 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2">
+        <v>47128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2">
+        <v>47578</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="2">
+        <v>44704</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="2">
+        <v>47036</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="C2">
-        <v>11</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="2">
+        <v>45544</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="C3">
-        <v>12</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>13</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
+      <c r="C7" t="s">
         <v>9</v>
       </c>
-      <c r="C5">
-        <v>14</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>10</v>
-      </c>
-      <c r="C6">
+      <c r="D7" t="s">
         <v>15</v>
       </c>
-      <c r="D6">
-        <v>1</v>
+      <c r="E7" s="2">
+        <v>45261</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:D1">
+  <conditionalFormatting sqref="A1:E1">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A6">
+  <conditionalFormatting sqref="A2:A7">
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B6">
+  <conditionalFormatting sqref="B2:B7">
     <cfRule type="notContainsBlanks" dxfId="2" priority="3">
       <formula>LEN(TRIM(B2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C6">
+  <conditionalFormatting sqref="C2:C7">
     <cfRule type="notContainsBlanks" dxfId="3" priority="4">
       <formula>LEN(TRIM(C2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D6">
+  <conditionalFormatting sqref="D2:D7">
     <cfRule type="notContainsBlanks" dxfId="3" priority="5">
       <formula>LEN(TRIM(D2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E7">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="6">
+      <formula>LEN(TRIM(E2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resultado.xlsx
+++ b/resultado.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
   <si>
     <t>tituloStatic</t>
   </si>
@@ -62,15 +62,30 @@
   </si>
   <si>
     <t>Equipo veterano da un gran espectaculo</t>
+  </si>
+  <si>
+    <t>10-01-2029</t>
+  </si>
+  <si>
+    <t>05-04-2030</t>
+  </si>
+  <si>
+    <t>23-05-2022</t>
+  </si>
+  <si>
+    <t>10-10-2028</t>
+  </si>
+  <si>
+    <t>09-09-2024</t>
+  </si>
+  <si>
+    <t>01-12-2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -123,12 +138,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -488,8 +502,8 @@
       <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2">
-        <v>47128</v>
+      <c r="E2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -505,8 +519,8 @@
       <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="2">
-        <v>47578</v>
+      <c r="E3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -522,8 +536,8 @@
       <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="2">
-        <v>44704</v>
+      <c r="E4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -539,8 +553,8 @@
       <c r="D5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="2">
-        <v>47036</v>
+      <c r="E5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -556,8 +570,8 @@
       <c r="D6" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="2">
-        <v>45544</v>
+      <c r="E6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -573,8 +587,8 @@
       <c r="D7" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="2">
-        <v>45261</v>
+      <c r="E7" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
